--- a/biology/Botanique/Callirhoe/Callirhoe.xlsx
+++ b/biology/Botanique/Callirhoe/Callirhoe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callirhoe  est un genre de plantes à fleurs de la famille des Malvaceae, qui comprend aussi les  mauves. Ses neuf espèces sont natives des prairies et zones herbeuses d'Amérique du Nord. De ces neuf espèces, certaines sont des annuelles tandis que d'autres sont des plantes vivaces.
-Le genre est dénommé d'après l'Océanide Callirrhoe dans la Mythologie grecque[2].
+Le genre est dénommé d'après l'Océanide Callirrhoe dans la Mythologie grecque.
 Les feuilles des espèces du genre Callirhoe sont alternes et palmatilobées. Les fleurs ont une forme de coupe et sont brillamment colorées.
 Callirhoe involucrata est cultivée comme plante de jardin. Il s'agit d'une vivace basse avec un système racinaire important et des tiges poilues. La couleur des fleurs varie du cerise au rouge violacé avec un centre blanc. Elle est particulièrement utilisée en climats secs.
 </t>
@@ -514,9 +526,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les espèces incluent[3]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les espèces incluent:
 Callirhoe alcaeoides (Michx.) A.Gray – pale poppy mallow
 Callirhoe bushii Fernald – Bush's poppy mallow
 Callirhoe digitata Nutt. – fringed poppy mallow, winecup
@@ -525,9 +539,7 @@
 Callirhoe papaver (Cav.) A.Gray – woodland poppy mallow
 Callirhoe pedata (Nutt. ex Hook.) A.Gray – palmleaf poppy mallow
 Callirhoe scabriuscula B.L.Rob. – Texas poppy mallow
-Callirhoe triangulata (Leavenw.) A.Gray – clustered poppy mallow
-Anciennement classé ici
-Sidalcea oregana spicata (Regel) C.L.Hitchc. (as C. spicata Regel)[3]</t>
+Callirhoe triangulata (Leavenw.) A.Gray – clustered poppy mallow</t>
         </is>
       </c>
     </row>
@@ -552,12 +564,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Anciennement classé ici</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sidalcea oregana spicata (Regel) C.L.Hitchc. (as C. spicata Regel)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Callirhoe</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callirhoe</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (6 août 2013)[4] et ITIS      (6 août 2013)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (6 août 2013) et ITIS      (6 août 2013) :
 Callirhoe alcaeoides (Michx.) A. Gray
 Callirhoe bushii Fernald
 Callirhoe digitata Nutt.
@@ -567,10 +617,10 @@
 Callirhoe pedata (Nutt. ex Hook.) A. Gray
 Callirhoe scabriuscula B.L. Rob.
 Callirhoe triangulata (Leavenw.) A. Gray
-Selon NCBI  (6 août 2013)[6] :
+Selon NCBI  (6 août 2013) :
 Callirhoe digitata
 Callirhoe involucrata
-Selon Tropicos                                           (6 août 2013)[7] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (6 août 2013) (Attention liste brute contenant possiblement des synonymes) :
 Callirhoe alcaeoides (Michx.) A. Gray
 Callirhoe bushii Fernald
 Callirhoe digitata Nutt.
